--- a/doc/事件表.xlsx
+++ b/doc/事件表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizij\Desktop\cigj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD16A0D1-68BA-4BBA-8331-BBD571F77322}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0BD4E8-21ED-413A-80B1-725ADD245A0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>事件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,21 +43,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OnLeft</t>
-  </si>
-  <si>
-    <t>OnRight</t>
-  </si>
-  <si>
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按下左移动键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按下右移动键</t>
+    <t>OnHorizontal</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下左右移动键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnJump</t>
+  </si>
+  <si>
+    <t>按下跳跃键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnAttack</t>
+  </si>
+  <si>
+    <t>OnAbsorb</t>
+  </si>
+  <si>
+    <t>UnAbsorb</t>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃吸收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHPAttenuation</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命消减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消减值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnAbandon</t>
+  </si>
+  <si>
+    <t>抛弃能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnSwitchAbility</t>
+  </si>
+  <si>
+    <t>选择能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnSwitchItem</t>
+  </si>
+  <si>
+    <t>选择道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnGainAbility</t>
+  </si>
+  <si>
+    <t>获取能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnGainItem</t>
+  </si>
+  <si>
+    <t>怪物编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于道具与怪物的编号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnPlayerDead</t>
+  </si>
+  <si>
+    <t>角色死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,18 +505,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,10 +530,13 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -418,16 +544,164 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
